--- a/farmServer/config/Entity.xlsx
+++ b/farmServer/config/Entity.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="5160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>BuildingID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +308,94 @@
   </si>
   <si>
     <t>不参与建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否收回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加50点装饰值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加100点装饰值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,147 +729,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-      <c r="M2">
-        <v>-1</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-      <c r="O2">
-        <v>-1</v>
-      </c>
-      <c r="P2">
-        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K3">
         <v>-1</v>
       </c>
       <c r="L3">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N3">
         <v>-1</v>
@@ -795,78 +889,78 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
       </c>
       <c r="K4">
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>80</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O4">
         <v>-1</v>
       </c>
       <c r="P4">
-        <v>201</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -878,54 +972,54 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>-1</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>3</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
       </c>
       <c r="O6">
         <v>-1</v>
@@ -936,37 +1030,37 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>601</v>
+        <v>501</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -978,42 +1072,42 @@
         <v>-1</v>
       </c>
       <c r="P7">
-        <v>501</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>701</v>
+        <v>601</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>300</v>
+        <v>-1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -1025,45 +1119,42 @@
         <v>-1</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>702</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
+        <v>701</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9">
         <v>300</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1078,9 +1169,149 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>702</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1301</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12">
+        <v>1302</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -1109,6 +1340,10 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/farmServer/config/Entity.xlsx
+++ b/farmServer/config/Entity.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>BuildingID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,18 @@
   </si>
   <si>
     <t>1_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粑粑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低环境分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1221,46 +1233,46 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>1301</v>
+        <v>899</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K11">
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N11">
         <v>-1</v>
       </c>
       <c r="O11">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1268,13 +1280,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12">
         <v>13</v>
@@ -1292,30 +1304,73 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>50</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1302</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>92</v>
       </c>
-      <c r="K12">
-        <v>-1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>-1</v>
-      </c>
-      <c r="O12">
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
         <v>100</v>
       </c>
-      <c r="P12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="P13">
+        <v>-1</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1344,6 +1399,10 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1357,7 +1416,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
